--- a/FichiersExcel/Etudiants.xlsx
+++ b/FichiersExcel/Etudiants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnasChatt\Desktop\XMLProjet\Fichiers Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnasChatt\Desktop\XMLProjet\FichiersExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E9F011-0DFD-4BEF-B8F9-74988FC0A6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8223258-A7FC-4B63-8FD7-163F9641EF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8AB3C5C-8ED2-401F-9AC8-9B4CDD7E9F9D}"/>
   </bookViews>
@@ -561,12 +561,6 @@
     <t>sexe</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>prenom</t>
   </si>
   <si>
@@ -589,6 +583,12 @@
   </si>
   <si>
     <t>anas.chatt1@etu.uae.ac.ma</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Femme</t>
   </si>
 </sst>
 </file>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B64336D-A8B6-497C-8125-6CEC32FF5B41}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,28 +999,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1037,11 +1037,11 @@
         <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">RANDBETWEEN($I$2,$J$2)</f>
-        <v>37850</v>
+        <v>37279</v>
       </c>
       <c r="I2" s="4">
         <v>36526</v>
@@ -1064,11 +1064,11 @@
         <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F63" ca="1" si="0">RANDBETWEEN($I$2,$J$2)</f>
-        <v>37927</v>
+        <v>37351</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1085,11 +1085,11 @@
         <v>116</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37868</v>
+        <v>37547</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1106,11 +1106,11 @@
         <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37906</v>
+        <v>37716</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1127,11 +1127,11 @@
         <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36975</v>
+        <v>37730</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1148,11 +1148,11 @@
         <v>119</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37009</v>
+        <v>37694</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1169,11 +1169,11 @@
         <v>120</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37755</v>
+        <v>37884</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1190,11 +1190,11 @@
         <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36684</v>
+        <v>37896</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1211,11 +1211,11 @@
         <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36880</v>
+        <v>37127</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1232,11 +1232,11 @@
         <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36619</v>
+        <v>37448</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1253,11 +1253,11 @@
         <v>124</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37524</v>
+        <v>37726</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1274,11 +1274,11 @@
         <v>125</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36908</v>
+        <v>36601</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1295,11 +1295,11 @@
         <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37316</v>
+        <v>37468</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1316,11 +1316,11 @@
         <v>127</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37873</v>
+        <v>37475</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1337,11 +1337,11 @@
         <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37099</v>
+        <v>36620</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,11 +1358,11 @@
         <v>129</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37075</v>
+        <v>36701</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1379,11 +1379,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37401</v>
+        <v>37287</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1397,14 +1397,14 @@
         <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37104</v>
+        <v>36572</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1421,11 +1421,11 @@
         <v>130</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36840</v>
+        <v>37342</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,11 +1442,11 @@
         <v>131</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36935</v>
+        <v>37860</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1463,11 +1463,11 @@
         <v>132</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37270</v>
+        <v>37542</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1484,11 +1484,11 @@
         <v>133</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37397</v>
+        <v>37768</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1505,11 +1505,11 @@
         <v>134</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37947</v>
+        <v>37922</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1526,11 +1526,11 @@
         <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37302</v>
+        <v>37465</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1547,11 +1547,11 @@
         <v>136</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37984</v>
+        <v>37510</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1568,11 +1568,11 @@
         <v>137</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37432</v>
+        <v>37566</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1589,11 +1589,11 @@
         <v>138</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37702</v>
+        <v>37350</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1610,11 +1610,11 @@
         <v>139</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37563</v>
+        <v>36768</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1631,11 +1631,11 @@
         <v>140</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36712</v>
+        <v>37883</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1652,11 +1652,11 @@
         <v>141</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36904</v>
+        <v>37154</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1673,11 +1673,11 @@
         <v>142</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36973</v>
+        <v>37972</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1694,11 +1694,11 @@
         <v>143</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37743</v>
+        <v>37547</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1715,11 +1715,11 @@
         <v>144</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36562</v>
+        <v>36616</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1736,11 +1736,11 @@
         <v>145</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37293</v>
+        <v>36792</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1757,11 +1757,11 @@
         <v>146</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37117</v>
+        <v>37420</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1778,11 +1778,11 @@
         <v>147</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36616</v>
+        <v>37426</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1799,11 +1799,11 @@
         <v>148</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37517</v>
+        <v>37387</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1820,11 +1820,11 @@
         <v>149</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37519</v>
+        <v>37897</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1841,11 +1841,11 @@
         <v>150</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37773</v>
+        <v>36817</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1862,11 +1862,11 @@
         <v>151</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36540</v>
+        <v>37351</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1883,11 +1883,11 @@
         <v>152</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37805</v>
+        <v>37389</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1904,11 +1904,11 @@
         <v>153</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36575</v>
+        <v>37065</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1925,11 +1925,11 @@
         <v>154</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37455</v>
+        <v>36943</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1946,11 +1946,11 @@
         <v>155</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37020</v>
+        <v>36693</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1967,11 +1967,11 @@
         <v>156</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37368</v>
+        <v>37132</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1988,11 +1988,11 @@
         <v>157</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37731</v>
+        <v>36688</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2009,11 +2009,11 @@
         <v>158</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37032</v>
+        <v>37100</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2030,11 +2030,11 @@
         <v>159</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37239</v>
+        <v>36711</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2051,11 +2051,11 @@
         <v>160</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37580</v>
+        <v>37495</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2072,11 +2072,11 @@
         <v>161</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36654</v>
+        <v>36802</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2093,11 +2093,11 @@
         <v>162</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37892</v>
+        <v>36844</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2114,11 +2114,11 @@
         <v>163</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37305</v>
+        <v>36606</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2135,11 +2135,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37206</v>
+        <v>37520</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2156,11 +2156,11 @@
         <v>165</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37613</v>
+        <v>37626</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2177,11 +2177,11 @@
         <v>166</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37516</v>
+        <v>37390</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2198,11 +2198,11 @@
         <v>167</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37137</v>
+        <v>37819</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2219,11 +2219,11 @@
         <v>168</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37478</v>
+        <v>37439</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2240,11 +2240,11 @@
         <v>169</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36612</v>
+        <v>36879</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2261,11 +2261,11 @@
         <v>170</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37595</v>
+        <v>37231</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2282,11 +2282,11 @@
         <v>171</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37264</v>
+        <v>37038</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2303,11 +2303,11 @@
         <v>173</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36967</v>
+        <v>37490</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2324,11 +2324,11 @@
         <v>172</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37681</v>
+        <v>37556</v>
       </c>
     </row>
   </sheetData>

--- a/FichiersExcel/Etudiants.xlsx
+++ b/FichiersExcel/Etudiants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnasChatt\Desktop\XMLProjet\Fichiers Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnasChatt\Desktop\XMLProjet\FichiersExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF86C8A-7516-445D-B479-4B8DF2C62BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8223258-A7FC-4B63-8FD7-163F9641EF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{B8AB3C5C-8ED2-401F-9AC8-9B4CDD7E9F9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8AB3C5C-8ED2-401F-9AC8-9B4CDD7E9F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -426,9 +426,6 @@
     <t>sara.boulaid@etu.uae.ac.ma</t>
   </si>
   <si>
-    <t>anas.chatt@etu.uae.ac.ma</t>
-  </si>
-  <si>
     <t>doha.dahrabou@etu.uae.ac.ma</t>
   </si>
   <si>
@@ -564,12 +561,6 @@
     <t>sexe</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>prenom</t>
   </si>
   <si>
@@ -589,6 +580,15 @@
   </si>
   <si>
     <t>id_etudiant</t>
+  </si>
+  <si>
+    <t>anas.chatt1@etu.uae.ac.ma</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Femme</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,28 +999,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1037,11 +1037,11 @@
         <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">RANDBETWEEN($I$2,$J$2)</f>
-        <v>37429</v>
+        <v>37279</v>
       </c>
       <c r="I2" s="4">
         <v>36526</v>
@@ -1064,11 +1064,11 @@
         <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F63" ca="1" si="0">RANDBETWEEN($I$2,$J$2)</f>
-        <v>37071</v>
+        <v>37351</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1085,11 +1085,11 @@
         <v>116</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37544</v>
+        <v>37547</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1106,11 +1106,11 @@
         <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36536</v>
+        <v>37716</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1127,11 +1127,11 @@
         <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37418</v>
+        <v>37730</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1148,11 +1148,11 @@
         <v>119</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36732</v>
+        <v>37694</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1169,11 +1169,11 @@
         <v>120</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37212</v>
+        <v>37884</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1190,11 +1190,11 @@
         <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37813</v>
+        <v>37896</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1211,11 +1211,11 @@
         <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37631</v>
+        <v>37127</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1232,11 +1232,11 @@
         <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37894</v>
+        <v>37448</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1253,11 +1253,11 @@
         <v>124</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37670</v>
+        <v>37726</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1274,11 +1274,11 @@
         <v>125</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37453</v>
+        <v>36601</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1295,11 +1295,11 @@
         <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36805</v>
+        <v>37468</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1316,11 +1316,11 @@
         <v>127</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37700</v>
+        <v>37475</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1337,11 +1337,11 @@
         <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37481</v>
+        <v>36620</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,11 +1358,11 @@
         <v>129</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37271</v>
+        <v>36701</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1379,11 +1379,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37658</v>
+        <v>37287</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1397,14 +1397,14 @@
         <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37638</v>
+        <v>36572</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1418,14 +1418,14 @@
         <v>36</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36867</v>
+        <v>37342</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1439,14 +1439,14 @@
         <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36600</v>
+        <v>37860</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1460,14 +1460,14 @@
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37288</v>
+        <v>37542</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1481,14 +1481,14 @@
         <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36871</v>
+        <v>37768</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1502,14 +1502,14 @@
         <v>44</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37323</v>
+        <v>37922</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,14 +1523,14 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37945</v>
+        <v>37465</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1544,14 +1544,14 @@
         <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36653</v>
+        <v>37510</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1565,14 +1565,14 @@
         <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36869</v>
+        <v>37566</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1586,14 +1586,14 @@
         <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37629</v>
+        <v>37350</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1607,14 +1607,14 @@
         <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37198</v>
+        <v>36768</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1628,14 +1628,14 @@
         <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37367</v>
+        <v>37883</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1649,14 +1649,14 @@
         <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36848</v>
+        <v>37154</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1670,14 +1670,14 @@
         <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36640</v>
+        <v>37972</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1691,14 +1691,14 @@
         <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37060</v>
+        <v>37547</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1712,14 +1712,14 @@
         <v>62</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37616</v>
+        <v>36616</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,14 +1733,14 @@
         <v>64</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36654</v>
+        <v>36792</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1754,14 +1754,14 @@
         <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37399</v>
+        <v>37420</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1775,14 +1775,14 @@
         <v>22</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37502</v>
+        <v>37426</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1796,14 +1796,14 @@
         <v>69</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37489</v>
+        <v>37387</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1817,14 +1817,14 @@
         <v>71</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36601</v>
+        <v>37897</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1838,14 +1838,14 @@
         <v>73</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36918</v>
+        <v>36817</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1859,14 +1859,14 @@
         <v>75</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37378</v>
+        <v>37351</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1880,14 +1880,14 @@
         <v>77</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37176</v>
+        <v>37389</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1901,14 +1901,14 @@
         <v>79</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37452</v>
+        <v>37065</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1922,14 +1922,14 @@
         <v>81</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37658</v>
+        <v>36943</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1943,14 +1943,14 @@
         <v>83</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37831</v>
+        <v>36693</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,14 +1964,14 @@
         <v>85</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36595</v>
+        <v>37132</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1985,14 +1985,14 @@
         <v>87</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36756</v>
+        <v>36688</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2006,14 +2006,14 @@
         <v>77</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37051</v>
+        <v>37100</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2027,14 +2027,14 @@
         <v>90</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37126</v>
+        <v>36711</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2048,14 +2048,14 @@
         <v>92</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36690</v>
+        <v>37495</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2069,14 +2069,14 @@
         <v>87</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37352</v>
+        <v>36802</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2090,14 +2090,14 @@
         <v>95</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36656</v>
+        <v>36844</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2111,14 +2111,14 @@
         <v>38</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37321</v>
+        <v>36606</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,14 +2132,14 @@
         <v>66</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37077</v>
+        <v>37520</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2153,14 +2153,14 @@
         <v>99</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37535</v>
+        <v>37626</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2174,14 +2174,14 @@
         <v>101</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37858</v>
+        <v>37390</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2195,14 +2195,14 @@
         <v>103</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37127</v>
+        <v>37819</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2216,14 +2216,14 @@
         <v>105</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36649</v>
+        <v>37439</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2237,14 +2237,14 @@
         <v>107</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37727</v>
+        <v>36879</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2258,14 +2258,14 @@
         <v>109</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37253</v>
+        <v>37231</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2279,14 +2279,14 @@
         <v>111</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36936</v>
+        <v>37038</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2300,14 +2300,14 @@
         <v>113</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36622</v>
+        <v>37490</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2321,14 +2321,14 @@
         <v>24</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36694</v>
+        <v>37556</v>
       </c>
     </row>
   </sheetData>
